--- a/dados/pedrosobibi.xlsx
+++ b/dados/pedrosobibi.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Jfa 60 A Slim Fonte Carregador Bateria Sistema Inteligente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>54.23</v>
+        <v>413</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:135390111#searchVariation=MLB27970249&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1182458914-jfa-60-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t xml:space="preserve">Jfa K1200  Controle Longa Distancia P/ Pioneer Sony Hbuster </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>73.91</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:135390111#searchVariation=MLB32364344&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1026479830-jfa-k1200-controle-longa-distancia-p-pioneer-sony-hbuster-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59.49</v>
+        <v>129.99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,14 +611,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:135390111#searchVariation=MLB28722231&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:135390111#searchVariation=MLB27373663&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jfa Red Line - Controle Distancia C/ Plug P2 Wr / Resistiva</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>78.5</v>
+        <v>73.91</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2777431575-jfa-red-line-controle-distancia-c-plug-p2-wr-resistiva-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:135390111#searchVariation=MLB32364344&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jfa K1200  Controle Longa Distancia P/ Pioneer Sony Hbuster </t>
+          <t>4 Kit Jfa K1200 - Controle Longa Distancia Frete Grátis</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -682,11 +682,11 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>55.1</v>
+        <v>279</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1026479830-jfa-k1200-controle-longa-distancia-p-pioneer-sony-hbuster-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027959894-4-kit-jfa-k1200-controle-longa-distancia-frete-gratis-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,20 +718,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Branco Com Azul</t>
+          <t>Jfa Red Line - Controle Distancia C/ Plug P2 Wr / Resistiva</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>129.99</v>
+        <v>78.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-branco-com-azul/p/MLB28778361?pdp_filters=seller_id:135390111#searchVariation=MLB28778361&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2777431575-jfa-red-line-controle-distancia-c-plug-p2-wr-resistiva-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
+          <t>Controle A Longa Distancia Jfa K600 Completo 600 Metros Cor Branco Com Azul</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:135390111#searchVariation=MLB28056168&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/controle-a-longa-distancia-jfa-k600-completo-600-metros-cor-branco-com-azul/p/MLB28778361?pdp_filters=seller_id:135390111#searchVariation=MLB28778361&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>137.75</v>
+        <v>179</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:135390111#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/combo-jfa-controle-distancia-k1200-br-voltimetro-v12-slim/p/MLB29588437?pdp_filters=seller_id:135390111#searchVariation=MLB29588437&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,16 +853,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle remoto estéreo Jfa K600 Pioneer/Sony P Cor preto/azul</t>
+          <t>04 Kits Jfa K1200 - Controle Longa Distancia 1200m</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>129.99</v>
+        <v>349</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -876,19 +876,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-estereo-jfa-k600-pioneersony-p-cor-pretoazul/p/MLB27373663?pdp_filters=seller_id:135390111#searchVariation=MLB27373663&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027929091-04-kits-jfa-k1200-controle-longa-distancia-1200m-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Voltimetro Digiltal Jfa V12 Slim Saída Remote Visor Vermelho</t>
+          <t>Jfa V12 Slim Voltimetro Digiltal Saída Remote Visor Vermelho</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>54.99</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
@@ -917,19 +917,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1164955749-voltimetro-digiltal-jfa-v12-slim-saida-remote-visor-vermelho-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1070163906-jfa-v12-slim-voltimetro-digiltal-saida-remote-visor-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,18 +939,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Jfa V12 Slim Voltimetro Digiltal Saída Remote Visor Vermelho</t>
+          <t>Controle Longa Distância Jfa K1200 Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>64.81</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>64.98999999999999</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -958,19 +962,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1070163906-jfa-v12-slim-voltimetro-digiltal-saida-remote-visor-vermelho-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1160059378-controle-longa-distncia-jfa-k1200-completo-barato-brasil-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -980,16 +984,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>04 Kits Jfa K1200 - Controle Longa Distancia 1200m</t>
+          <t>Kit 2 Controles Longa Distancia Jfa Preto Com Verde K600 M</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>349</v>
+        <v>129.99</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1003,19 +1007,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027929091-04-kits-jfa-k1200-controle-longa-distancia-1200m-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/kit-2-controles-longa-distancia-jfa-preto-com-verde-k600-m/p/MLB28056168?pdp_filters=seller_id:135390111#searchVariation=MLB28056168&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1025,7 +1029,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4 Kit Jfa K1200 - Controle Longa Distancia Frete Grátis</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1034,7 +1038,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>279</v>
+        <v>61.72</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1048,19 +1052,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027959894-4-kit-jfa-k1200-controle-longa-distancia-frete-gratis-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:135390111#searchVariation=MLB28722231&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1070,7 +1074,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Jfa K1200 - Controle Longa Distancia Sem Central' Reposição</t>
+          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1098,14 +1102,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1066672397-jfa-k1200-controle-longa-distancia-sem-central-reposico-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:135390111#searchVariation=MLB35276166&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1115,22 +1119,18 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>Voltimetro Digiltal Jfa V12 Slim Saída Remote Visor Vermelho</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>413</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
+        <v>54.99</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1138,19 +1138,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1182458914-jfa-60-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1164955749-voltimetro-digiltal-jfa-v12-slim-saida-remote-visor-vermelho-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1160,16 +1160,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Acgua Preto - Controle Distancia Jfa K1200 Resistente Agua</t>
+          <t>04 Kits Jfa K600 - Controle + Central Completo - Só Instalar</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>66.3</v>
+        <v>282.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1188,14 +1188,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747826955-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1038775036-04-kits-jfa-k600-controle-central-completo-so-instalar-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1205,20 +1205,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Controle Distancia Jfa Red Line C/ Plug P2 Wr / Resistiva</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>78.98999999999999</v>
+        <v>61.72</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1233,14 +1233,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2777468715-controle-distancia-jfa-red-line-c-plug-p2-wr-resistiva-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:135390111#searchVariation=MLB28687615&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=f58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2 Kits Controle Distancia Jfa K1200  (1 Preto + 1 Vermelho) </t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Frete Gratis</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>139.4</v>
+        <v>64.59</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1278,14 +1278,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027920361-2-kits-controle-distancia-jfa-k1200-1-preto-1-vermelho-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027947035-jfa-k1200-controle-longa-distancia-1200-metros-frete-gratis-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1323,14 +1323,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2747796354-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2747796354-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1340,16 +1340,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>04 Kits Jfa K600 - Controle + Central Completo - Só Instalar</t>
+          <t xml:space="preserve">2 Kits Controle Distancia Jfa K1200  (1 Preto + 1 Vermelho) </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>282.5</v>
+        <v>164</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1368,14 +1368,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1038775036-04-kits-jfa-k600-controle-central-completo-so-instalar-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027920361-2-kits-controle-distancia-jfa-k1200-1-preto-1-vermelho-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Metros Frete Gratis</t>
+          <t>Acgua Preto - Controle Distancia Jfa K1200 Resistente Agua</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>64.59</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1413,14 +1413,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027947035-jfa-k1200-controle-longa-distancia-1200-metros-frete-gratis-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2747826955-acgua-preto-controle-distancia-jfa-k1200-resistente-agua-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1430,18 +1430,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Voltimetro Digiltal Jfa V12 Slim Saída Remote Visor Vermelho</t>
+          <t>Controle Distancia Jfa Red Line C/ Plug P2 Wr / Resistiva</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>72.02</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+        <v>78.98999999999999</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1454,14 +1458,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1164958760-voltimetro-digiltal-jfa-v12-slim-saida-remote-visor-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2777468715-controle-distancia-jfa-red-line-c-plug-p2-wr-resistiva-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1471,16 +1475,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jfa K1200 - Completo (controle + Central) + Barato Brasil</t>
+          <t>03 Kits Controles Jfa K600 - Completos (central + Controle)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>94</v>
+        <v>199.99</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1499,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027926543-jfa-k1200-completo-controle-central-barato-brasil-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1026478270-03-kits-controles-jfa-k600-completos-central-controle-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1516,22 +1520,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 - Longa Distância 1200 Metros Completo</t>
+          <t>Voltimetro Digiltal Jfa V12 Slim Saída Remote Visor Vermelho</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>61.72</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>72.02</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1544,14 +1544,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1062782370-controle-jfa-k1200-longa-distncia-1200-metros-completo-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1164958760-voltimetro-digiltal-jfa-v12-slim-saida-remote-visor-vermelho-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Completo</t>
+          <t>Jfa K1200 - Completo (controle + Central) + Barato Brasil</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1570,11 +1570,11 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>64.98999999999999</v>
+        <v>94</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1584,19 +1584,19 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1160480933-controle-longa-distncia-jfa-k1200-completo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027926543-jfa-k1200-completo-controle-central-barato-brasil-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1606,16 +1606,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>03 Kits Controles Jfa K600 - Completos (central + Controle)</t>
+          <t>Kit Combo C/ 02 Controles Longa Distância Jfa K1200 Completo</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>199.99</v>
+        <v>169</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1634,14 +1634,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1026478270-03-kits-controles-jfa-k600-completos-central-controle-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1965985832-kit-combo-c-02-controles-longa-distncia-jfa-k1200-completo-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1651,20 +1651,20 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>Controle Longa Distância Jfa K1200 Completo</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>129.99</v>
+        <v>64.98999999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1674,19 +1674,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1062802339-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1160480933-controle-longa-distncia-jfa-k1200-completo-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1696,16 +1696,16 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kit Combo C/ 02 Controles Longa Distância Jfa K1200 Completo</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>169</v>
+        <v>129.99</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1724,14 +1724,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1965985832-kit-combo-c-02-controles-longa-distncia-jfa-k1200-completo-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1062802339-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1741,22 +1741,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jfa 60 A Slim Fonte Carregador Bateria Sistema Inteligente</t>
+          <t>Jfa Vs5 Hi Sequenciador Voltimetro Medidor Bateria Digital</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>487</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>63.99</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1764,19 +1760,19 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1032605859-jfa-60-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1062826313-jfa-vs5-hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1786,7 +1782,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kit C/ 10 Controles Longa Distância Jfa K1200 Cores Variadas</t>
+          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1795,7 +1791,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>613.39</v>
+        <v>199</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1809,19 +1805,19 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2776201150-kit-c-10-controles-longa-distncia-jfa-k1200-cores-variadas-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1070157875-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1831,16 +1827,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
+          <t>Jfa K1200 - Só Central Comando Para Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>63</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1859,14 +1855,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1027934063-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1160485636-jfa-k1200-so-central-comando-para-controle-longa-distancia-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1876,16 +1872,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Combo V12 Slim + Jfa K1200 (voltimetro + Controle Distancia)</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo + Barato Brasil</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1899,19 +1895,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1070157875-combo-v12-slim-jfa-k1200-voltimetro-controle-distancia-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1027934063-jfa-k600-controle-longa-distancia-completo-barato-brasil-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1921,18 +1917,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Jfa Vs5 Hi Sequenciador Voltimetro Medidor Bateria Digital</t>
+          <t>Jfa 60 A Slim Fonte Carregador Bateria Sistema Inteligente</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>57.59</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
+        <v>487</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1940,19 +1940,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1062826313-jfa-vs5-hi-sequenciador-voltimetro-medidor-bateria-digital-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1032605859-jfa-60-a-slim-fonte-carregador-bateria-sistema-inteligente-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1962,20 +1962,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Jfa 40a Storm - Fonte Carregador Digital Carga Flutuante</t>
+          <t>Kit C/ 10 Controles Longa Distância Jfa K1200 Cores Variadas</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>433</v>
+        <v>613.39</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1985,19 +1985,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1029661080-jfa-40a-storm-fonte-carregador-digital-carga-flutuante-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2776201150-kit-c-10-controles-longa-distncia-jfa-k1200-cores-variadas-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2007,20 +2007,20 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Jfa 120a Storm - Fonte Carregador Digital Carga Flutuante</t>
+          <t>Jfa 200 A Carregador Bateria Sci - Sistema Inteligente Carga</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>634.4</v>
+        <v>944</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2030,19 +2030,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1161783235-jfa-120a-storm-fonte-carregador-digital-carga-flutuante-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1061710383-jfa-200-a-carregador-bateria-sci-sistema-inteligente-carga-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2080,14 +2080,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1192953674-jfa-200-a-carregador-bateria-sci-sistema-inteligente-carga-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1192953674-jfa-200-a-carregador-bateria-sci-sistema-inteligente-carga-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2097,20 +2097,20 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jfa 200 A Carregador Bateria Sci - Sistema Inteligente Carga</t>
+          <t>Jfa 120a Storm - Fonte Carregador Digital Carga Flutuante</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>944</v>
+        <v>634.4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2120,19 +2120,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1061710383-jfa-200-a-carregador-bateria-sci-sistema-inteligente-carga-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1161783235-jfa-120a-storm-fonte-carregador-digital-carga-flutuante-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2142,20 +2142,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Jfa 40a Storm - Fonte Carregador Digital Carga Flutuante</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.25</v>
+        <v>433</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2170,14 +2170,14 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:135390111#searchVariation=MLB28687615&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1029661080-jfa-40a-storm-fonte-carregador-digital-carga-flutuante-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2187,20 +2187,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Jfa K1200 Preto Cordão + Central + Controle Longa Distancia</t>
+          <t>Jfa K600 - Só Central Não Incluso Controle Longa Distancia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>64.98</v>
+        <v>44.99</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2215,14 +2215,14 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-k1200-preto-cordo-central-controle-longa-distancia/p/MLB35276166?pdp_filters=seller_id:135390111#searchVariation=MLB35276166&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2630363760-jfa-k600-so-central-no-incluso-controle-longa-distancia-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>67.15000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2260,14 +2260,14 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1160058000-controle-longa-distncia-jfa-k1200-completo-barato-brasil-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1160058000-controle-longa-distncia-jfa-k1200-completo-barato-brasil-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2277,20 +2277,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Jfa K600 - Só Central Não Incluso Controle Longa Distancia</t>
+          <t>Jfa K1200 - Controle Longa Distancia Sem Central' Reposição</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>38.25</v>
+        <v>64.98</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2630363760-jfa-k600-so-central-no-incluso-controle-longa-distancia-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1a70d751-bff9-4fa7-a90b-ca241571a322</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1066672397-jfa-k1200-controle-longa-distancia-sem-central-reposico-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Df58849c5-900a-4afd-abf3-7693e6cd989c</t>
         </is>
       </c>
     </row>
